--- a/Tibetic-Grammars_Review_Master.xlsx
+++ b/Tibetic-Grammars_Review_Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\01_PhD\03_Analysis\02_TibeticGrammarsAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\01_PhD\03_Analysis\02_TGR\tibetic_grammars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A962E0B-E221-455A-9A7C-64B1ECEB8CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72398EDB-A3DC-4DC3-A7F5-9F99C6ED0380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{999B515B-97FA-46B5-AE4A-F4B530AC5BD1}"/>
+    <workbookView xWindow="-24098" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{999B515B-97FA-46B5-AE4A-F4B530AC5BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,18 +50,9 @@
     <t>title</t>
   </si>
   <si>
-    <t>n-pages</t>
-  </si>
-  <si>
-    <t>n-chapters</t>
-  </si>
-  <si>
     <t>pub</t>
   </si>
   <si>
-    <t>is-diss</t>
-  </si>
-  <si>
     <t>lang</t>
   </si>
   <si>
@@ -71,111 +62,27 @@
     <t>scope</t>
   </si>
   <si>
-    <t>focus-reg</t>
-  </si>
-  <si>
     <t>endg</t>
   </si>
   <si>
     <t>PhDinstt</t>
   </si>
   <si>
-    <t>country-phd</t>
-  </si>
-  <si>
     <t>instt</t>
   </si>
   <si>
-    <t>pst-inst</t>
-  </si>
-  <si>
-    <t>sec-aff</t>
-  </si>
-  <si>
-    <t>phd-sup</t>
-  </si>
-  <si>
-    <t>imp-pst-mentor</t>
-  </si>
-  <si>
     <t>insiderling</t>
   </si>
   <si>
-    <t>year-first-fw</t>
-  </si>
-  <si>
-    <t>total-time-fw</t>
-  </si>
-  <si>
-    <t>data-source</t>
-  </si>
-  <si>
-    <t>partcpnt-info</t>
-  </si>
-  <si>
-    <t>corpus-type-av</t>
-  </si>
-  <si>
-    <t>data-coll-eqpmnt</t>
-  </si>
-  <si>
-    <t>data-coll-tools</t>
-  </si>
-  <si>
-    <t>speech-genre</t>
-  </si>
-  <si>
-    <t>data-analysis-software</t>
-  </si>
-  <si>
-    <t>data-coll-time-mention</t>
-  </si>
-  <si>
-    <t>data-coll-time-months</t>
-  </si>
-  <si>
-    <t>data-archived-metion</t>
-  </si>
-  <si>
     <t>archive</t>
   </si>
   <si>
-    <t>data-where</t>
-  </si>
-  <si>
-    <t>ierb-ethics-mention</t>
-  </si>
-  <si>
-    <t>consent-mention</t>
-  </si>
-  <si>
-    <t>methodology-LS</t>
-  </si>
-  <si>
     <t>organization</t>
   </si>
   <si>
     <t>approach</t>
   </si>
   <si>
-    <t>theor-fw</t>
-  </si>
-  <si>
-    <t>speech-segm-mention</t>
-  </si>
-  <si>
-    <t>speech-segm</t>
-  </si>
-  <si>
-    <t>community-grammar</t>
-  </si>
-  <si>
-    <t>texts-LS</t>
-  </si>
-  <si>
-    <t>why-no-text</t>
-  </si>
-  <si>
     <t>glossary</t>
   </si>
   <si>
@@ -197,9 +104,6 @@
     <t>syntax</t>
   </si>
   <si>
-    <t>complex-clauses</t>
-  </si>
-  <si>
     <t>ideophones</t>
   </si>
   <si>
@@ -212,30 +116,9 @@
     <t>variation</t>
   </si>
   <si>
-    <t>multi-modal-anal</t>
-  </si>
-  <si>
-    <t>exmaple-IG</t>
-  </si>
-  <si>
-    <t>n-tiers</t>
-  </si>
-  <si>
-    <t>nat-orth</t>
-  </si>
-  <si>
     <t>leipzig</t>
   </si>
   <si>
-    <t>abbreviation-list</t>
-  </si>
-  <si>
-    <t>example-citation-LS</t>
-  </si>
-  <si>
-    <t>example-source</t>
-  </si>
-  <si>
     <t>CsomadeKorosA1834</t>
   </si>
   <si>
@@ -326,9 +209,6 @@
     <t>Sarat Chandra Das</t>
   </si>
   <si>
-    <t>An Introduction to the Grammar of the Tibetan Language with the texts of Situ sum-tag, Dag-je salwai me-long, and Situi shal lung</t>
-  </si>
-  <si>
     <t>87 [107]</t>
   </si>
   <si>
@@ -431,9 +311,6 @@
     <t>Central Tibetan</t>
   </si>
   <si>
-    <t>Office-in-Charge of Tibetan Students, Darjeeling</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -464,9 +341,6 @@
     <t>OF</t>
   </si>
   <si>
-    <t>Structural-distributional model of linguistic analysis</t>
-  </si>
-  <si>
     <t>RanganK1979</t>
   </si>
   <si>
@@ -572,12 +446,6 @@
     <t>Sherpa</t>
   </si>
   <si>
-    <t>Solu-Khumbu</t>
-  </si>
-  <si>
-    <t>University of California at Santa-Barbara</t>
-  </si>
-  <si>
     <t>E+NS</t>
   </si>
   <si>
@@ -593,9 +461,6 @@
     <t>345 [345]</t>
   </si>
   <si>
-    <t>VGH Wissenschaftsverlag GmbH - Bonn</t>
-  </si>
-  <si>
     <t>Kyirong</t>
   </si>
   <si>
@@ -704,18 +569,12 @@
     <t>Yohlmo</t>
   </si>
   <si>
-    <t>Sermathang-Chhimi</t>
-  </si>
-  <si>
     <t>SIL International and Central Department of Linguistics, Tribhuvan University</t>
   </si>
   <si>
     <t>David Watters, Prof. Dr. Churamani Bandhu, and Prof. Dr. Yogendra Yadava</t>
   </si>
   <si>
-    <t>Functional-typological</t>
-  </si>
-  <si>
     <t>ZempM2013</t>
   </si>
   <si>
@@ -770,9 +629,6 @@
     <t>160 [171]</t>
   </si>
   <si>
-    <t>Asia-Pacific Linguistics, The Australian National University</t>
-  </si>
-  <si>
     <t>Yolmo</t>
   </si>
   <si>
@@ -830,9 +686,6 @@
     <t>David Watters</t>
   </si>
   <si>
-    <t>Functional-Typological, BLT</t>
-  </si>
-  <si>
     <t>Some by IU, mostly by whole sentences</t>
   </si>
   <si>
@@ -866,9 +719,6 @@
     <t>WA</t>
   </si>
   <si>
-    <t>Functional-typological, applying Basic Linguistic Theory</t>
-  </si>
-  <si>
     <t>TriburZ2019</t>
   </si>
   <si>
@@ -893,9 +743,6 @@
     <t>Scott DeLancey</t>
   </si>
   <si>
-    <t>Construction Grammar as a Usage-Based Theory</t>
-  </si>
-  <si>
     <t>GerberPetal2020</t>
   </si>
   <si>
@@ -923,15 +770,9 @@
     <t>Pema Wangdi</t>
   </si>
   <si>
-    <t>A Grammar of Brokpa: A Trans-Himalayan Language of Bhutan</t>
-  </si>
-  <si>
     <t>959 [1004]</t>
   </si>
   <si>
-    <t>Merak-Sakteng</t>
-  </si>
-  <si>
     <t>James Cook University</t>
   </si>
   <si>
@@ -1007,7 +848,166 @@
     <t>period</t>
   </si>
   <si>
-    <t>-</t>
+    <t>n_pages</t>
+  </si>
+  <si>
+    <t>n_chapters</t>
+  </si>
+  <si>
+    <t>is_diss</t>
+  </si>
+  <si>
+    <t>focus_reg</t>
+  </si>
+  <si>
+    <t>country_phd</t>
+  </si>
+  <si>
+    <t>pst_inst</t>
+  </si>
+  <si>
+    <t>sec_aff</t>
+  </si>
+  <si>
+    <t>phd_sup</t>
+  </si>
+  <si>
+    <t>imp_pst_mentor</t>
+  </si>
+  <si>
+    <t>year_first_fw</t>
+  </si>
+  <si>
+    <t>total_time_fw</t>
+  </si>
+  <si>
+    <t>data_source</t>
+  </si>
+  <si>
+    <t>partcpnt_info</t>
+  </si>
+  <si>
+    <t>corpus_type_av</t>
+  </si>
+  <si>
+    <t>data_coll_eqpmnt</t>
+  </si>
+  <si>
+    <t>data_coll_tools</t>
+  </si>
+  <si>
+    <t>speech_genre</t>
+  </si>
+  <si>
+    <t>data_analysis_software</t>
+  </si>
+  <si>
+    <t>data_coll_time_mention</t>
+  </si>
+  <si>
+    <t>data_coll_time_months</t>
+  </si>
+  <si>
+    <t>data_archived_metion</t>
+  </si>
+  <si>
+    <t>data_where</t>
+  </si>
+  <si>
+    <t>ierb_ethics_mention</t>
+  </si>
+  <si>
+    <t>consent_mention</t>
+  </si>
+  <si>
+    <t>methodology_LS</t>
+  </si>
+  <si>
+    <t>theor_fw</t>
+  </si>
+  <si>
+    <t>speech_segm_mention</t>
+  </si>
+  <si>
+    <t>speech_segm</t>
+  </si>
+  <si>
+    <t>community_grammar</t>
+  </si>
+  <si>
+    <t>texts_LS</t>
+  </si>
+  <si>
+    <t>why_no_text</t>
+  </si>
+  <si>
+    <t>complex_clauses</t>
+  </si>
+  <si>
+    <t>multi_modal_anal</t>
+  </si>
+  <si>
+    <t>exmaple_IG</t>
+  </si>
+  <si>
+    <t>n_tiers</t>
+  </si>
+  <si>
+    <t>nat_orth</t>
+  </si>
+  <si>
+    <t>abbreviation_list</t>
+  </si>
+  <si>
+    <t>example_citation_LS</t>
+  </si>
+  <si>
+    <t>example_source</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>An Introduction to the Grammar of the Tibetan Language with the texts of Situ sum_tag, Dag_je salwai me_long, and Situi shal lung</t>
+  </si>
+  <si>
+    <t>Office_in_Charge of Tibetan Students, Darjeeling</t>
+  </si>
+  <si>
+    <t>Structural_distributional model of linguistic analysis</t>
+  </si>
+  <si>
+    <t>Solu_Khumbu</t>
+  </si>
+  <si>
+    <t>University of California at Santa_Barbara</t>
+  </si>
+  <si>
+    <t>VGH Wissenschaftsverlag GmbH _ Bonn</t>
+  </si>
+  <si>
+    <t>Sermathang_Chhimi</t>
+  </si>
+  <si>
+    <t>Functional_typological</t>
+  </si>
+  <si>
+    <t>Asia_Pacific Linguistics, The Australian National University</t>
+  </si>
+  <si>
+    <t>Functional_Typological, BLT</t>
+  </si>
+  <si>
+    <t>Functional_typological, applying Basic Linguistic Theory</t>
+  </si>
+  <si>
+    <t>Construction Grammar as a Usage_Based Theory</t>
+  </si>
+  <si>
+    <t>A Grammar of Brokpa: A Trans_Himalayan Language of Bhutan</t>
+  </si>
+  <si>
+    <t>Merak_Sakteng</t>
   </si>
 </sst>
 </file>
@@ -1410,13 +1410,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR14" sqref="AR14"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.73046875" customWidth="1"/>
     <col min="11" max="11" width="9.3984375" customWidth="1"/>
+    <col min="42" max="42" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.45">
@@ -1430,1888 +1431,1888 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
+        <v>275</v>
+      </c>
+      <c r="S1" t="s">
+        <v>276</v>
+      </c>
+      <c r="T1" t="s">
+        <v>277</v>
+      </c>
+      <c r="U1" t="s">
+        <v>278</v>
+      </c>
+      <c r="V1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
+        <v>279</v>
+      </c>
+      <c r="X1" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AJ1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AN1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AO1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AP1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AV1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AW1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AX1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AY1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AZ1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="BA1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="BB1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="BC1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="BE1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="BF1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="BG1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="BH1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>305</v>
+      </c>
+      <c r="BL1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>62</v>
-      </c>
       <c r="BM1" t="s">
-        <v>63</v>
+        <v>306</v>
       </c>
       <c r="BN1" t="s">
-        <v>64</v>
+        <v>307</v>
       </c>
       <c r="BO1" t="s">
-        <v>65</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>1834</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Y2" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="Z2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AE2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM2">
         <v>1</v>
       </c>
       <c r="AN2" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AP2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT2">
         <v>4</v>
       </c>
       <c r="AU2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AV2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AW2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX2" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA2" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB2" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BD2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BF2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BH2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BJ2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BK2" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BL2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BM2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BN2">
         <v>1</v>
       </c>
       <c r="BO2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>1883</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="R3" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U3" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W3" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X3" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Y3" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="Z3" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AE3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF3" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ3" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM3">
         <v>1</v>
       </c>
       <c r="AN3" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO3" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AP3" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR3" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT3">
         <v>2</v>
       </c>
       <c r="AU3" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AV3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AW3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX3" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA3" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB3" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BD3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BF3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BH3" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BJ3" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BK3" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BL3" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BM3" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN3">
         <v>1</v>
       </c>
       <c r="BO3" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>1912</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q4" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R4" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S4" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U4" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Y4" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="Z4" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AE4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF4" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AG4" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ4" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM4">
         <v>1</v>
       </c>
       <c r="AN4" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO4" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP4" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR4" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT4">
         <v>1</v>
       </c>
       <c r="AU4" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AV4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AW4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX4" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA4" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB4" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BD4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BF4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BH4" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BJ4" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BK4" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BL4" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BM4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BN4">
         <v>1</v>
       </c>
       <c r="BO4" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>1915</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>310</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q5" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="R5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S5" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="T5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V5" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X5" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Y5" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="Z5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD5" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AE5" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AG5" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH5" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI5" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK5" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM5">
         <v>2</v>
       </c>
       <c r="AN5" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO5" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AP5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR5" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS5" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT5">
         <v>4</v>
       </c>
       <c r="AU5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AV5" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AW5" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AX5" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY5" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ5" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BA5" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB5" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC5" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BD5" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BE5" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BF5" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG5" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BH5" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI5" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BJ5" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BK5" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BL5" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BM5" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN5">
         <v>1</v>
       </c>
       <c r="BO5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>1919</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="G6">
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O6" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q6" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="R6" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S6" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T6" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U6" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W6" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X6" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Y6" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="Z6" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AA6" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AE6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF6" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AG6" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ6" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM6">
         <v>2</v>
       </c>
       <c r="AN6" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO6" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AP6" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR6" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT6">
         <v>4</v>
       </c>
       <c r="AU6" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AV6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AW6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX6" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA6" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB6" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BD6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BF6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BH6" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BJ6" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BK6" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BL6" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BM6" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN6">
         <v>1</v>
       </c>
       <c r="BO6" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>1933</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="M7" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="O7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="s">
         <v>74</v>
       </c>
-      <c r="P7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>114</v>
-      </c>
       <c r="R7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Y7" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AA7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD7" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AE7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AG7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM7">
         <v>2</v>
       </c>
       <c r="AN7" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AP7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT7">
         <v>3</v>
       </c>
       <c r="AU7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AV7" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AW7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX7" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA7" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BC7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BD7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BF7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BH7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BJ7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BK7" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BL7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BM7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BN7">
         <v>1</v>
       </c>
       <c r="BO7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>1934</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="L8" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P8" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q8" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="R8" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S8" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T8" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U8" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W8" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X8" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Y8" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="Z8" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AE8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF8" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ8" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM8">
         <v>1</v>
       </c>
       <c r="AN8" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO8" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP8" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR8" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT8">
         <v>1</v>
       </c>
       <c r="AU8" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AV8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AW8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX8" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA8" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB8" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC8" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD8" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BE8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BF8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BH8" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BJ8" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BK8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BL8" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BM8" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN8">
         <v>1</v>
       </c>
       <c r="BO8" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>1957</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q9" t="s">
-        <v>131</v>
+        <v>311</v>
       </c>
       <c r="R9" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S9" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="T9" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U9" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V9" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="W9" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X9" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Y9" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="Z9" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AE9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF9" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ9" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM9">
         <v>1</v>
       </c>
       <c r="AN9" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO9" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AP9" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR9" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT9">
         <v>4</v>
       </c>
       <c r="AU9" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AV9" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AW9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX9" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA9" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB9" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BD9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BF9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BH9" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BJ9" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BK9" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BL9" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BM9" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN9">
         <v>1</v>
       </c>
       <c r="BO9" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>1979</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="G10">
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q10" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="R10" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S10" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T10" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U10" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V10" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W10">
         <v>1971</v>
@@ -3320,201 +3321,201 @@
         <v>8</v>
       </c>
       <c r="Y10" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Z10" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AA10" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD10" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AE10" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF10" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AG10" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH10" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ10" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM10">
         <v>3</v>
       </c>
       <c r="AN10" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO10" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP10" t="s">
-        <v>142</v>
+        <v>312</v>
       </c>
       <c r="AQ10" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR10" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS10" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT10">
         <v>2</v>
       </c>
       <c r="AU10" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AV10" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AW10" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AX10" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY10" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ10" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA10" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB10" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC10" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD10" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE10" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF10" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG10" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BH10" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI10" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ10">
         <v>3</v>
       </c>
       <c r="BK10" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BL10" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BM10" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN10">
         <v>1</v>
       </c>
       <c r="BO10" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="C11">
         <v>1979</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q11" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="R11" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S11" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T11" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U11" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W11">
         <v>1970</v>
@@ -3523,401 +3524,401 @@
         <v>9</v>
       </c>
       <c r="Y11" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Z11" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AA11" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AE11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF11" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AG11" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI11" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ11" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM11">
         <v>3</v>
       </c>
       <c r="AN11" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO11" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP11" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR11" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT11">
         <v>2</v>
       </c>
       <c r="AU11" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AV11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AW11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX11" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA11" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB11" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BD11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BF11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BH11" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BJ11" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BK11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BL11" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BM11" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN11">
         <v>1</v>
       </c>
       <c r="BO11" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="C12">
         <v>1992</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="G12">
         <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P12" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q12" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="R12" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S12" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T12" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U12" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V12" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W12" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X12" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Y12" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="Z12" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AA12" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD12" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AE12" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF12" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AG12" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH12" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI12" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ12" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK12" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AL12" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AM12">
         <v>2</v>
       </c>
       <c r="AN12" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO12" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP12" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ12" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR12" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS12" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT12">
         <v>1</v>
       </c>
       <c r="AU12" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AV12" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AW12" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX12" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY12" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ12" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA12" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB12" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC12" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD12" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BE12" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF12" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BG12" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BH12" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI12" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ12">
         <v>4</v>
       </c>
       <c r="BK12" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BL12" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BM12" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN12">
         <v>1</v>
       </c>
       <c r="BO12" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="C13">
         <v>1999</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="G13">
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O13" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="Q13" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="R13" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S13" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T13" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="V13" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W13">
         <v>1995</v>
@@ -3926,404 +3927,404 @@
         <v>4</v>
       </c>
       <c r="Y13" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AA13" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD13" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AE13" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF13" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AG13" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH13" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI13" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ13" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK13" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM13">
         <v>3</v>
       </c>
       <c r="AN13" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO13" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP13" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ13" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR13" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS13" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="AT13">
         <v>1</v>
       </c>
       <c r="AU13" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AV13" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AW13" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX13" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY13" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AZ13" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BA13" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB13" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC13" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD13" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE13" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF13" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BG13" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BH13" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI13" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ13">
         <v>4</v>
       </c>
       <c r="BK13" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BL13" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BM13" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN13">
         <v>2</v>
       </c>
       <c r="BO13" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="C14">
         <v>1999</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="G14">
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P14" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q14" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="R14" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S14" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T14" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U14" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V14" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W14" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X14" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Y14" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="Z14" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD14" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AE14" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF14" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH14" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ14" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK14" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM14">
         <v>2</v>
       </c>
       <c r="AN14" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO14" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP14" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="AQ14" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR14" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS14" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT14">
         <v>5</v>
       </c>
       <c r="AU14" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AV14" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AW14" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AX14" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY14" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ14" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA14" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB14" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC14" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD14" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE14" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF14" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG14" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BH14" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI14" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ14">
         <v>4</v>
       </c>
       <c r="BK14" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="BL14" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BM14" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN14">
         <v>1</v>
       </c>
       <c r="BO14" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="C15">
         <v>2004</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="G15">
         <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="L15" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="M15" t="s">
-        <v>178</v>
+        <v>313</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O15" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P15" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q15" t="s">
-        <v>179</v>
+        <v>314</v>
       </c>
       <c r="R15" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S15" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T15" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U15" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V15" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W15">
         <v>1998</v>
@@ -4332,201 +4333,201 @@
         <v>6</v>
       </c>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Z15" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AA15" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD15" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AE15" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF15" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AG15" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH15" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI15" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ15" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM15">
         <v>3</v>
       </c>
       <c r="AN15" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO15" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP15" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ15" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR15" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS15" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT15">
         <v>2</v>
       </c>
       <c r="AU15" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AV15" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AW15" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX15" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY15" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ15" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA15" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB15" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC15" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD15" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE15" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF15" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG15" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="BH15" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI15" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ15">
         <v>3</v>
       </c>
       <c r="BK15" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BL15" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BM15" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN15">
         <v>1</v>
       </c>
       <c r="BO15" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="C16">
         <v>2005</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="G16">
         <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>185</v>
+        <v>315</v>
       </c>
       <c r="I16" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="J16" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="L16" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="M16" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P16" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q16" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="R16" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S16" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T16" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="U16" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="V16" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W16">
         <v>1998</v>
@@ -4535,201 +4536,201 @@
         <v>7</v>
       </c>
       <c r="Y16" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Z16" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AA16" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD16" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AE16" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF16" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AG16">
         <v>11</v>
       </c>
       <c r="AH16" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI16" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ16" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK16" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL16" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM16">
         <v>3</v>
       </c>
       <c r="AN16" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO16" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP16" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ16" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR16" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS16" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT16">
         <v>2</v>
       </c>
       <c r="AU16" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AV16" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AW16" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX16" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY16" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ16" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA16" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB16" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC16" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD16" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE16" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF16" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BG16" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="BH16" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI16" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ16">
         <v>3</v>
       </c>
       <c r="BK16" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BL16" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BM16" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN16">
         <v>1</v>
       </c>
       <c r="BO16" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="C17">
         <v>2007</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="G17">
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="K17" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="L17" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="M17" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O17" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="Q17" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="R17" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S17" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T17" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="U17" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W17">
         <v>2003</v>
@@ -4738,201 +4739,201 @@
         <v>4</v>
       </c>
       <c r="Y17" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Z17" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AA17" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD17" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AE17" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AF17" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AG17" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI17" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ17" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM17">
         <v>3</v>
       </c>
       <c r="AN17" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO17" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP17" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="AQ17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR17" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT17">
         <v>5</v>
       </c>
       <c r="AU17" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AV17" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AW17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX17" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA17" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB17" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC17" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE17" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BH17" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI17" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ17">
         <v>3</v>
       </c>
       <c r="BK17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BL17" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BM17" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN17">
         <v>1</v>
       </c>
       <c r="BO17" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="C18">
         <v>2007</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="G18">
         <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="L18" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="M18" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="Q18" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="R18" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S18" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="T18" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="U18" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V18" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W18">
         <v>2002</v>
@@ -4941,201 +4942,201 @@
         <v>5</v>
       </c>
       <c r="Y18" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Z18" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AA18" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD18" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AE18" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF18" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AG18" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH18" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ18" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK18" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL18" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM18">
         <v>3</v>
       </c>
       <c r="AN18" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO18" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP18" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ18" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR18" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS18" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT18">
         <v>5</v>
       </c>
       <c r="AU18" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AV18" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AW18" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX18" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY18" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ18" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BA18" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB18" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC18" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD18" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BE18" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF18" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BG18" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BH18" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI18" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ18">
         <v>3</v>
       </c>
       <c r="BK18" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BL18" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BM18" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN18">
         <v>5</v>
       </c>
       <c r="BO18" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C19">
         <v>2009</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="F19" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="G19">
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="L19" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P19" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q19" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="R19" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S19" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T19" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U19" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V19" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W19">
         <v>1995</v>
@@ -5144,201 +5145,201 @@
         <v>14</v>
       </c>
       <c r="Y19" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Z19" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AA19" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD19" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AE19" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF19" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AG19">
         <v>1.5</v>
       </c>
       <c r="AH19" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI19" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ19" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK19" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AL19" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AM19">
         <v>3</v>
       </c>
       <c r="AN19" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO19" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AP19" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ19" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR19" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS19" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT19">
         <v>2</v>
       </c>
       <c r="AU19" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AV19" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AW19" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX19" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY19" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ19" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA19" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB19" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC19" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD19" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE19" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BF19" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG19" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BH19" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI19" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ19">
         <v>3</v>
       </c>
       <c r="BK19" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BL19" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BM19" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BN19">
         <v>1</v>
       </c>
       <c r="BO19" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C20">
         <v>2010</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="F20" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G20">
         <v>8</v>
       </c>
       <c r="H20" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="L20" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="M20" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O20" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P20" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q20" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="R20" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S20" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T20" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U20" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="V20" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W20">
         <v>1980</v>
@@ -5347,201 +5348,201 @@
         <v>30</v>
       </c>
       <c r="Y20" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Z20" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AA20" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD20" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AE20" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF20" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AG20" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH20" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI20" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ20" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK20" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL20" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM20">
         <v>1</v>
       </c>
       <c r="AN20" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO20" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP20" t="s">
-        <v>225</v>
+        <v>317</v>
       </c>
       <c r="AQ20" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR20" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS20" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT20">
         <v>1</v>
       </c>
       <c r="AU20" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AV20" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AW20" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX20" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY20" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ20" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA20" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB20" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC20" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD20" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE20" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF20" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG20" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BH20" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI20" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ20">
         <v>3</v>
       </c>
       <c r="BK20" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BL20" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BM20" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN20">
         <v>1</v>
       </c>
       <c r="BO20" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="C21">
         <v>2013</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="F21" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="G21">
         <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="J21" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="L21" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O21" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="Q21" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="R21" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="S21" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T21" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="U21" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="V21" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W21">
         <v>2004</v>
@@ -5550,201 +5551,201 @@
         <v>9</v>
       </c>
       <c r="Y21" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Z21" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AA21" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD21" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AE21" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF21" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AG21" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH21" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI21" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ21" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK21" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL21" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM21">
         <v>4</v>
       </c>
       <c r="AN21" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO21" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP21" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="AQ21" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR21" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS21" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT21">
         <v>1</v>
       </c>
       <c r="AU21" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AV21" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AW21" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX21" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY21" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ21" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BA21" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB21" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC21" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD21" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BE21" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF21" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BG21" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="BH21" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI21" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ21">
         <v>3</v>
       </c>
       <c r="BK21" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BL21" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BM21" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN21">
         <v>1</v>
       </c>
       <c r="BO21" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="C22">
         <v>2016</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="F22" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="G22">
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="I22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="J22" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="L22" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="M22" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="O22" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P22" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q22" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="R22" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S22" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T22" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U22" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W22">
         <v>1972</v>
@@ -5753,201 +5754,201 @@
         <v>44</v>
       </c>
       <c r="Y22" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Z22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AA22" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AE22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF22" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AG22" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI22" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ22" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM22">
         <v>2</v>
       </c>
       <c r="AN22" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO22" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP22" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR22" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT22">
         <v>5</v>
       </c>
       <c r="AU22" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AV22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AW22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX22" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA22" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB22" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC22" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD22" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BE22" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF22" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BG22" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BH22" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI22" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ22">
         <v>3</v>
       </c>
       <c r="BK22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BL22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BM22" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN22">
         <v>2</v>
       </c>
       <c r="BO22" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="C23">
         <v>2016</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="F23" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="G23">
         <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>244</v>
+        <v>318</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="J23" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="L23" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="M23" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O23" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P23" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q23" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="R23" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S23" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T23" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="U23" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V23" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W23">
         <v>2009</v>
@@ -5956,201 +5957,201 @@
         <v>7</v>
       </c>
       <c r="Y23" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Z23" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AA23" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AD23" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AE23" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AF23" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AG23">
         <v>10</v>
       </c>
       <c r="AH23" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AI23" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="AJ23" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="AK23" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL23" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM23">
         <v>5</v>
       </c>
       <c r="AN23" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO23" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="AP23" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ23" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR23" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS23" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT23">
         <v>5</v>
       </c>
       <c r="AU23" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AV23" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AW23" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX23" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY23" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AZ23" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BA23" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB23" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC23" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD23" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BE23" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF23" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BG23" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="BH23" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI23" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ23">
         <v>3</v>
       </c>
       <c r="BK23" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BL23" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BM23" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN23">
         <v>5</v>
       </c>
       <c r="BO23" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="C24">
         <v>2018</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="F24" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="G24">
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="I24" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="J24" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="M24" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O24" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P24" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q24" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="R24" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="S24" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T24" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="U24" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="V24" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W24">
         <v>2004</v>
@@ -6159,404 +6160,404 @@
         <v>14</v>
       </c>
       <c r="Y24" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Z24" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AA24" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD24" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AE24" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF24" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AG24" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH24" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI24" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ24" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK24" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM24">
         <v>4</v>
       </c>
       <c r="AN24" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO24" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP24" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ24" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR24" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS24" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT24">
         <v>2</v>
       </c>
       <c r="AU24" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AV24" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AW24" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AX24" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY24" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ24" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BA24" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB24" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC24" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD24" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BE24" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF24" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BG24" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="BH24" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI24" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ24">
         <v>3</v>
       </c>
       <c r="BK24" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BL24" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BM24" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN24">
         <v>1</v>
       </c>
       <c r="BO24" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="B25" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="C25">
         <v>2018</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="F25" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="G25">
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="K25" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="L25" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="M25" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O25" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="Q25" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="R25" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S25" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="T25" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="U25" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="V25" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W25" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X25" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Y25" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Z25" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AA25" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD25" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AE25" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AF25" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AG25" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH25" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI25" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ25" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK25" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AL25" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AM25">
         <v>4</v>
       </c>
       <c r="AN25" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO25" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="AP25" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="AQ25" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AR25" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="AS25" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="AT25">
         <v>5</v>
       </c>
       <c r="AU25" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AV25" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AW25" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX25" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY25" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AZ25" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BA25" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB25" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC25" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BD25" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE25" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF25" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BG25" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BH25" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI25" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ25">
         <v>3</v>
       </c>
       <c r="BK25" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="BL25" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BM25" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN25">
         <v>3</v>
       </c>
       <c r="BO25" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="C26">
         <v>2019</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="F26" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="G26">
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="K26" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="M26" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="O26" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="Q26" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="R26" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S26" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="T26" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="U26" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="V26" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W26">
         <v>2004</v>
@@ -6565,201 +6566,201 @@
         <v>15</v>
       </c>
       <c r="Y26" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Z26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AA26" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AE26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AF26" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AG26" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH26" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI26" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ26" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="AK26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AL26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AM26">
         <v>4</v>
       </c>
       <c r="AN26" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO26" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="AP26" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="AQ26" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR26" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS26" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT26">
         <v>5</v>
       </c>
       <c r="AU26" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AV26" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AW26" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AZ26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BA26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BE26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BG26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BH26" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BI26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ26">
         <v>4</v>
       </c>
       <c r="BK26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BL26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BM26" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN26">
         <v>3</v>
       </c>
       <c r="BO26" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="C27">
         <v>2019</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="F27" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="G27">
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I27" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="K27" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="M27" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O27" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="Q27" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="R27" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="S27" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T27" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="U27" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V27" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W27">
         <v>2010</v>
@@ -6768,201 +6769,201 @@
         <v>9</v>
       </c>
       <c r="Y27" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AA27" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD27" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AE27" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF27" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AG27" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH27" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI27" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ27" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK27" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL27" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM27">
         <v>2</v>
       </c>
       <c r="AN27" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO27" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP27" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="AQ27" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR27" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS27" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="AT27">
         <v>2</v>
       </c>
       <c r="AU27" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AV27" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AW27" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX27" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY27" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ27" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA27" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB27" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC27" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD27" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE27" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF27" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG27" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BH27" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI27" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ27">
         <v>3</v>
       </c>
       <c r="BK27" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BL27" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BM27" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN27">
         <v>2</v>
       </c>
       <c r="BO27" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="C28">
         <v>2020</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="F28" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="G28">
         <v>9</v>
       </c>
       <c r="H28" t="s">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="I28" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="J28" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="L28" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="M28" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="O28" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="P28" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q28" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="R28" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S28" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T28" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U28" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V28" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W28">
         <v>2017</v>
@@ -6971,198 +6972,198 @@
         <v>3</v>
       </c>
       <c r="Y28" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Z28" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AA28" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD28" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AE28" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AF28" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AG28" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH28" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI28" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ28" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK28" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AL28" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM28">
         <v>3</v>
       </c>
       <c r="AN28" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO28" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP28" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ28" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR28" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS28" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT28">
         <v>5</v>
       </c>
       <c r="AU28" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AV28" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AW28" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX28" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY28" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AZ28" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA28" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB28" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC28" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD28" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE28" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF28" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BG28" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BH28" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI28" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ28">
         <v>4</v>
       </c>
       <c r="BK28" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BL28" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BM28" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN28">
         <v>2</v>
       </c>
       <c r="BO28" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="C29">
         <v>2021</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="F29" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="G29">
         <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I29" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="K29" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="L29" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="M29" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="O29" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="P29" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="Q29" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="R29" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S29" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T29" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="V29" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W29">
         <v>2004</v>
@@ -7171,404 +7172,404 @@
         <v>17</v>
       </c>
       <c r="Y29" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Z29" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AA29" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD29" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AE29" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF29" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AG29" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH29" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI29" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ29" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK29" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AL29" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM29">
         <v>4</v>
       </c>
       <c r="AN29" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO29" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP29" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="AQ29" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR29" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS29" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT29">
         <v>2</v>
       </c>
       <c r="AU29" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AV29" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AW29" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX29" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY29" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AZ29" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BA29" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB29" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC29" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD29" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BE29" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF29" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG29" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BH29" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI29" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ29">
         <v>3</v>
       </c>
       <c r="BK29" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BL29" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BM29" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN29">
         <v>1</v>
       </c>
       <c r="BO29" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="C30">
         <v>2021</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="F30" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="G30">
         <v>6</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I30" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="J30" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="K30" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="L30" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="M30" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="O30" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="P30" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="Q30" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="R30" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S30" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T30" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="U30" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V30" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W30" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X30" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Y30" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Z30" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AA30" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AD30" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AE30" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF30" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AG30" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH30" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI30" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ30" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK30" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL30" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM30">
         <v>3</v>
       </c>
       <c r="AN30" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO30" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP30" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ30" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR30" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS30" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT30">
         <v>4</v>
       </c>
       <c r="AU30" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AV30" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AW30" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AX30" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY30" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ30" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA30" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB30" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC30" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BD30" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BE30" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BF30" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG30" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BH30" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI30" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ30">
         <v>3</v>
       </c>
       <c r="BK30" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BL30" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BM30" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN30">
         <v>1</v>
       </c>
       <c r="BO30" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="C31">
         <v>2022</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="F31" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="G31">
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="I31" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="J31" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="L31" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="M31" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="O31" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="Q31" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="R31" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S31" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T31" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U31" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V31" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W31">
         <v>2009</v>
@@ -7577,133 +7578,133 @@
         <v>13</v>
       </c>
       <c r="Y31" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="Z31" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AA31" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AD31" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AE31" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AF31" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AG31" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH31" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AI31" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AJ31" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK31" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AL31" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AM31">
         <v>1</v>
       </c>
       <c r="AN31" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AO31" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AP31" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AQ31" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AR31" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AS31" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AT31">
         <v>1</v>
       </c>
       <c r="AU31" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AV31" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AW31" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AX31" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY31" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AZ31" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BA31" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB31" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BC31" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BD31" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BE31" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BF31" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BG31" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="BH31" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="BI31" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BJ31">
         <v>3</v>
       </c>
       <c r="BK31" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BL31" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BM31" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BN31">
         <v>1</v>
       </c>
       <c r="BO31" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Tibetic-Grammars_Review_Master.xlsx
+++ b/Tibetic-Grammars_Review_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\01_PhD\03_Analysis\02_TGR\tibetic_grammars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9F2697-D515-4F98-9FBA-19534D8245E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B5DFFC-77D8-4881-B28C-C378DF6EA2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24098" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{999B515B-97FA-46B5-AE4A-F4B530AC5BD1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{999B515B-97FA-46B5-AE4A-F4B530AC5BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="325">
   <si>
     <t>key</t>
   </si>
@@ -875,12 +875,6 @@
     <t>imp_pst_mentor</t>
   </si>
   <si>
-    <t>year_first_fw</t>
-  </si>
-  <si>
-    <t>total_time_fw</t>
-  </si>
-  <si>
     <t>data_source</t>
   </si>
   <si>
@@ -914,9 +908,6 @@
     <t>data_where</t>
   </si>
   <si>
-    <t>ierb_ethics_mention</t>
-  </si>
-  <si>
     <t>consent_mention</t>
   </si>
   <si>
@@ -965,9 +956,6 @@
     <t>example_source</t>
   </si>
   <si>
-    <t>_</t>
-  </si>
-  <si>
     <t>An Introduction to the Grammar of the Tibetan Language with the texts of Situ sum_tag, Dag_je salwai me_long, and Situi shal lung</t>
   </si>
   <si>
@@ -1008,6 +996,21 @@
   </si>
   <si>
     <t>Merak_Sakteng</t>
+  </si>
+  <si>
+    <t>irb_ethics_info</t>
+  </si>
+  <si>
+    <t>year_first_ft</t>
+  </si>
+  <si>
+    <t>85 [104]</t>
+  </si>
+  <si>
+    <t>OF+PS+US</t>
+  </si>
+  <si>
+    <t>total_years_grammar</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1081,6 +1084,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1418,8 +1422,8 @@
   <dimension ref="A1:BO31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF25" sqref="AF25"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1500,55 +1504,55 @@
         <v>11</v>
       </c>
       <c r="W1" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="AI1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="AJ1" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM1" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="AN1" s="3" t="s">
         <v>13</v>
@@ -1557,22 +1561,22 @@
         <v>14</v>
       </c>
       <c r="AP1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="AS1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="AV1" s="3" t="s">
         <v>15</v>
@@ -1596,7 +1600,7 @@
         <v>21</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="BD1" s="3" t="s">
         <v>22</v>
@@ -1611,28 +1615,28 @@
         <v>25</v>
       </c>
       <c r="BH1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK1" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="BL1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="BM1" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="BN1" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BO1" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.45">
@@ -1708,7 +1712,7 @@
       <c r="X2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>208</v>
       </c>
       <c r="Z2" s="3" t="s">
@@ -1854,8 +1858,8 @@
       <c r="E3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>309</v>
+      <c r="F3" s="7" t="s">
+        <v>322</v>
       </c>
       <c r="G3" s="3">
         <v>3</v>
@@ -1911,7 +1915,7 @@
       <c r="X3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="2" t="s">
         <v>208</v>
       </c>
       <c r="Z3" s="3" t="s">
@@ -2114,7 +2118,7 @@
       <c r="X4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="2" t="s">
         <v>208</v>
       </c>
       <c r="Z4" s="3" t="s">
@@ -2258,7 +2262,7 @@
         <v>121</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>57</v>
@@ -2317,7 +2321,7 @@
       <c r="X5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="2" t="s">
         <v>61</v>
       </c>
       <c r="Z5" s="3" t="s">
@@ -2520,7 +2524,7 @@
       <c r="X6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Y6" s="2" t="s">
         <v>69</v>
       </c>
       <c r="Z6" s="3" t="s">
@@ -2723,7 +2727,7 @@
       <c r="X7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Y7" s="1" t="s">
         <v>77</v>
       </c>
       <c r="Z7" s="3" t="s">
@@ -2926,7 +2930,7 @@
       <c r="X8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Y8" s="2" t="s">
         <v>208</v>
       </c>
       <c r="Z8" s="3" t="s">
@@ -3106,7 +3110,7 @@
         <v>35</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>34</v>
@@ -3129,7 +3133,7 @@
       <c r="X9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Y9" s="2" t="s">
         <v>208</v>
       </c>
       <c r="Z9" s="3" t="s">
@@ -3332,7 +3336,7 @@
       <c r="X10" s="3">
         <v>8</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Y10" s="1" t="s">
         <v>100</v>
       </c>
       <c r="Z10" s="3" t="s">
@@ -3384,7 +3388,7 @@
         <v>54</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AQ10" s="3" t="s">
         <v>32</v>
@@ -3535,7 +3539,7 @@
       <c r="X11" s="3">
         <v>9</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="Y11" s="1" t="s">
         <v>100</v>
       </c>
       <c r="Z11" s="3" t="s">
@@ -3738,7 +3742,7 @@
       <c r="X12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y12" s="3" t="s">
+      <c r="Y12" s="1" t="s">
         <v>208</v>
       </c>
       <c r="Z12" s="3" t="s">
@@ -3938,7 +3942,7 @@
       <c r="X13" s="3">
         <v>4</v>
       </c>
-      <c r="Y13" s="3" t="s">
+      <c r="Y13" s="1" t="s">
         <v>77</v>
       </c>
       <c r="Z13" s="3" t="s">
@@ -4141,7 +4145,7 @@
       <c r="X14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="2" t="s">
         <v>208</v>
       </c>
       <c r="Z14" s="3" t="s">
@@ -4309,7 +4313,7 @@
         <v>51</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>32</v>
@@ -4321,7 +4325,7 @@
         <v>35</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>34</v>
@@ -4344,7 +4348,7 @@
       <c r="X15" s="3">
         <v>6</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="Y15" s="1" t="s">
         <v>100</v>
       </c>
       <c r="Z15" s="3" t="s">
@@ -4497,7 +4501,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>129</v>
@@ -4547,7 +4551,7 @@
       <c r="X16" s="3">
         <v>7</v>
       </c>
-      <c r="Y16" s="3" t="s">
+      <c r="Y16" s="1" t="s">
         <v>100</v>
       </c>
       <c r="Z16" s="3" t="s">
@@ -4750,7 +4754,7 @@
       <c r="X17" s="3">
         <v>4</v>
       </c>
-      <c r="Y17" s="3" t="s">
+      <c r="Y17" s="2" t="s">
         <v>100</v>
       </c>
       <c r="Z17" s="3" t="s">
@@ -4953,7 +4957,7 @@
       <c r="X18" s="3">
         <v>5</v>
       </c>
-      <c r="Y18" s="3" t="s">
+      <c r="Y18" s="1" t="s">
         <v>100</v>
       </c>
       <c r="Z18" s="3" t="s">
@@ -5156,7 +5160,7 @@
       <c r="X19" s="3">
         <v>14</v>
       </c>
-      <c r="Y19" s="3" t="s">
+      <c r="Y19" s="1" t="s">
         <v>100</v>
       </c>
       <c r="Z19" s="3" t="s">
@@ -5324,7 +5328,7 @@
         <v>51</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>32</v>
@@ -5359,7 +5363,7 @@
       <c r="X20" s="3">
         <v>30</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Y20" s="1" t="s">
         <v>100</v>
       </c>
       <c r="Z20" s="3" t="s">
@@ -5411,7 +5415,7 @@
         <v>54</v>
       </c>
       <c r="AP20" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AQ20" s="3" t="s">
         <v>32</v>
@@ -5562,7 +5566,7 @@
       <c r="X21" s="3">
         <v>9</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="Y21" s="2" t="s">
         <v>100</v>
       </c>
       <c r="Z21" s="3" t="s">
@@ -5765,7 +5769,7 @@
       <c r="X22" s="3">
         <v>44</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="Y22" s="1" t="s">
         <v>100</v>
       </c>
       <c r="Z22" s="3" t="s">
@@ -5918,7 +5922,7 @@
         <v>8</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>129</v>
@@ -5968,7 +5972,7 @@
       <c r="X23" s="3">
         <v>7</v>
       </c>
-      <c r="Y23" s="3" t="s">
+      <c r="Y23" s="1" t="s">
         <v>100</v>
       </c>
       <c r="Z23" s="3" t="s">
@@ -6171,7 +6175,7 @@
       <c r="X24" s="3">
         <v>14</v>
       </c>
-      <c r="Y24" s="3" t="s">
+      <c r="Y24" s="2" t="s">
         <v>100</v>
       </c>
       <c r="Z24" s="3" t="s">
@@ -6374,8 +6378,8 @@
       <c r="X25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y25" s="3" t="s">
-        <v>100</v>
+      <c r="Y25" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="Z25" s="3" t="s">
         <v>39</v>
@@ -6396,7 +6400,7 @@
         <v>39</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AG25" s="3" t="s">
         <v>35</v>
@@ -6426,7 +6430,7 @@
         <v>203</v>
       </c>
       <c r="AP25" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AQ25" s="3" t="s">
         <v>39</v>
@@ -6577,8 +6581,8 @@
       <c r="X26" s="3">
         <v>15</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>100</v>
+      <c r="Y26" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>39</v>
@@ -6629,7 +6633,7 @@
         <v>203</v>
       </c>
       <c r="AP26" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AQ26" s="3" t="s">
         <v>32</v>
@@ -6780,7 +6784,7 @@
       <c r="X27" s="3">
         <v>9</v>
       </c>
-      <c r="Y27" s="3" t="s">
+      <c r="Y27" s="2" t="s">
         <v>77</v>
       </c>
       <c r="Z27" s="3" t="s">
@@ -6832,7 +6836,7 @@
         <v>54</v>
       </c>
       <c r="AP27" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AQ27" s="3" t="s">
         <v>32</v>
@@ -6983,7 +6987,7 @@
       <c r="X28" s="3">
         <v>3</v>
       </c>
-      <c r="Y28" s="3" t="s">
+      <c r="Y28" s="1" t="s">
         <v>100</v>
       </c>
       <c r="Z28" s="3" t="s">
@@ -7127,7 +7131,7 @@
         <v>44</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>244</v>
@@ -7151,7 +7155,7 @@
         <v>51</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="N29" s="6" t="s">
         <v>39</v>
@@ -7183,7 +7187,7 @@
       <c r="X29" s="3">
         <v>17</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Y29" s="1" t="s">
         <v>100</v>
       </c>
       <c r="Z29" s="3" t="s">
@@ -7386,7 +7390,7 @@
       <c r="X30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y30" s="3" t="s">
+      <c r="Y30" s="1" t="s">
         <v>100</v>
       </c>
       <c r="Z30" s="3" t="s">
@@ -7589,7 +7593,7 @@
       <c r="X31" s="3">
         <v>13</v>
       </c>
-      <c r="Y31" s="3" t="s">
+      <c r="Y31" s="1" t="s">
         <v>100</v>
       </c>
       <c r="Z31" s="3" t="s">

--- a/Tibetic-Grammars_Review_Master.xlsx
+++ b/Tibetic-Grammars_Review_Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\01_PhD\03_Analysis\02_TGR\tibetic_grammars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B5DFFC-77D8-4881-B28C-C378DF6EA2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D44465-931B-4E93-B724-DD7AFB009E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{999B515B-97FA-46B5-AE4A-F4B530AC5BD1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="324">
   <si>
     <t>key</t>
   </si>
@@ -404,9 +404,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>E+NS+PS</t>
-  </si>
-  <si>
     <t>DenwoodP1999</t>
   </si>
   <si>
@@ -689,9 +686,6 @@
     <t>Some by IU, mostly by whole sentences</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>YliniemiJ2019</t>
   </si>
   <si>
@@ -938,18 +932,12 @@
     <t>multi_modal_anal</t>
   </si>
   <si>
-    <t>exmaple_IG</t>
-  </si>
-  <si>
     <t>n_tiers</t>
   </si>
   <si>
     <t>nat_orth</t>
   </si>
   <si>
-    <t>abbreviation_list</t>
-  </si>
-  <si>
     <t>example_citation_LS</t>
   </si>
   <si>
@@ -1011,6 +999,15 @@
   </si>
   <si>
     <t>total_years_grammar</t>
+  </si>
+  <si>
+    <t>example_ig</t>
+  </si>
+  <si>
+    <t>abbreviations</t>
+  </si>
+  <si>
+    <t>E+NS+OS</t>
   </si>
 </sst>
 </file>
@@ -1421,9 +1418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B25BD2-0404-4F41-955D-7B511D9709C2}">
   <dimension ref="A1:BO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BH24" sqref="BH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1447,22 +1444,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
@@ -1474,7 +1471,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>8</v>
@@ -1483,76 +1480,76 @@
         <v>9</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Y1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="AI1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="AJ1" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM1" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="AN1" s="3" t="s">
         <v>13</v>
@@ -1561,22 +1558,22 @@
         <v>14</v>
       </c>
       <c r="AP1" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="AR1" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="AV1" s="3" t="s">
         <v>15</v>
@@ -1600,7 +1597,7 @@
         <v>21</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BD1" s="3" t="s">
         <v>22</v>
@@ -1615,28 +1612,28 @@
         <v>25</v>
       </c>
       <c r="BH1" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="BK1" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="BL1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="BM1" s="3" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="BN1" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="BO1" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.45">
@@ -1713,7 +1710,7 @@
         <v>35</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>34</v>
@@ -1838,7 +1835,7 @@
       <c r="BN2" s="5">
         <v>1</v>
       </c>
-      <c r="BO2" s="3" t="s">
+      <c r="BO2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1859,7 +1856,7 @@
         <v>42</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G3" s="3">
         <v>3</v>
@@ -1916,7 +1913,7 @@
         <v>35</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z3" s="3" t="s">
         <v>34</v>
@@ -2041,7 +2038,7 @@
       <c r="BN3" s="5">
         <v>1</v>
       </c>
-      <c r="BO3" s="3" t="s">
+      <c r="BO3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2119,7 +2116,7 @@
         <v>35</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z4" s="3" t="s">
         <v>34</v>
@@ -2244,7 +2241,7 @@
       <c r="BN4" s="5">
         <v>1</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="BO4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2262,7 +2259,7 @@
         <v>121</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>57</v>
@@ -2447,7 +2444,7 @@
       <c r="BN5" s="5">
         <v>1</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BO5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2650,7 +2647,7 @@
       <c r="BN6" s="5">
         <v>1</v>
       </c>
-      <c r="BO6" s="3" t="s">
+      <c r="BO6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2686,7 +2683,7 @@
         <v>75</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>51</v>
@@ -2853,7 +2850,7 @@
       <c r="BN7" s="6">
         <v>1</v>
       </c>
-      <c r="BO7" s="3" t="s">
+      <c r="BO7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2889,7 +2886,7 @@
         <v>83</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>34</v>
@@ -2931,7 +2928,7 @@
         <v>35</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>34</v>
@@ -3056,7 +3053,7 @@
       <c r="BN8" s="5">
         <v>1</v>
       </c>
-      <c r="BO8" s="3" t="s">
+      <c r="BO8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3110,7 +3107,7 @@
         <v>35</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>34</v>
@@ -3134,7 +3131,7 @@
         <v>35</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>34</v>
@@ -3259,7 +3256,7 @@
       <c r="BN9" s="5">
         <v>1</v>
       </c>
-      <c r="BO9" s="3" t="s">
+      <c r="BO9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3295,7 +3292,7 @@
         <v>97</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>44</v>
@@ -3388,7 +3385,7 @@
         <v>54</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AQ10" s="3" t="s">
         <v>32</v>
@@ -3462,7 +3459,7 @@
       <c r="BN10" s="6">
         <v>1</v>
       </c>
-      <c r="BO10" s="3" t="s">
+      <c r="BO10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3498,7 +3495,7 @@
         <v>105</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>34</v>
@@ -3665,7 +3662,7 @@
       <c r="BN11" s="6">
         <v>1</v>
       </c>
-      <c r="BO11" s="3" t="s">
+      <c r="BO11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3743,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>70</v>
@@ -3868,7 +3865,7 @@
       <c r="BN12" s="6">
         <v>1</v>
       </c>
-      <c r="BO12" s="3" t="s">
+      <c r="BO12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3904,7 +3901,7 @@
         <v>117</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>34</v>
@@ -4068,16 +4065,16 @@
       <c r="BN13" s="6">
         <v>2</v>
       </c>
-      <c r="BO13" s="3" t="s">
-        <v>122</v>
+      <c r="BO13" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="C14" s="3">
         <v>1999</v>
@@ -4089,13 +4086,13 @@
         <v>33</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G14" s="3">
         <v>15</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>32</v>
@@ -4122,7 +4119,7 @@
         <v>35</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>34</v>
@@ -4146,7 +4143,7 @@
         <v>35</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>34</v>
@@ -4197,7 +4194,7 @@
         <v>54</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AQ14" s="3" t="s">
         <v>32</v>
@@ -4260,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="BK14" s="3" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="BL14" s="3" t="s">
         <v>35</v>
@@ -4271,16 +4268,16 @@
       <c r="BN14" s="5">
         <v>1</v>
       </c>
-      <c r="BO14" s="3" t="s">
+      <c r="BO14" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="C15" s="3">
         <v>2004</v>
@@ -4289,31 +4286,31 @@
         <v>44</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="G15" s="3">
         <v>5</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="K15" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>51</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>32</v>
@@ -4325,7 +4322,7 @@
         <v>35</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>34</v>
@@ -4474,16 +4471,16 @@
       <c r="BN15" s="6">
         <v>1</v>
       </c>
-      <c r="BO15" s="3" t="s">
-        <v>136</v>
+      <c r="BO15" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="C16" s="3">
         <v>2005</v>
@@ -4492,22 +4489,22 @@
         <v>44</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="G16" s="3">
         <v>10</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>91</v>
@@ -4516,7 +4513,7 @@
         <v>51</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>39</v>
@@ -4537,10 +4534,10 @@
         <v>34</v>
       </c>
       <c r="T16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="U16" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="V16" s="3" t="s">
         <v>32</v>
@@ -4677,16 +4674,16 @@
       <c r="BN16" s="6">
         <v>1</v>
       </c>
-      <c r="BO16" s="3" t="s">
+      <c r="BO16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="C17" s="3">
         <v>2007</v>
@@ -4695,10 +4692,10 @@
         <v>44</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="G17" s="3">
         <v>7</v>
@@ -4710,37 +4707,37 @@
         <v>39</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T17" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>34</v>
@@ -4806,7 +4803,7 @@
         <v>54</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AQ17" s="3" t="s">
         <v>32</v>
@@ -4880,16 +4877,16 @@
       <c r="BN17" s="5">
         <v>1</v>
       </c>
-      <c r="BO17" s="3" t="s">
+      <c r="BO17" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="C18" s="3">
         <v>2007</v>
@@ -4898,10 +4895,10 @@
         <v>44</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="G18" s="3">
         <v>12</v>
@@ -4913,37 +4910,37 @@
         <v>39</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>51</v>
       </c>
       <c r="M18" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>34</v>
@@ -5083,16 +5080,16 @@
       <c r="BN18" s="6">
         <v>4</v>
       </c>
-      <c r="BO18" s="3" t="s">
-        <v>136</v>
+      <c r="BO18" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="C19" s="3">
         <v>2009</v>
@@ -5101,22 +5098,22 @@
         <v>44</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="G19" s="3">
         <v>7</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>38</v>
@@ -5137,7 +5134,7 @@
         <v>35</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>34</v>
@@ -5286,16 +5283,16 @@
       <c r="BN19" s="6">
         <v>1</v>
       </c>
-      <c r="BO19" s="3" t="s">
+      <c r="BO19" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="C20" s="3">
         <v>2010</v>
@@ -5304,31 +5301,31 @@
         <v>44</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="G20" s="3">
         <v>8</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="K20" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>51</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>32</v>
@@ -5340,19 +5337,19 @@
         <v>35</v>
       </c>
       <c r="Q20" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U20" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>32</v>
@@ -5415,7 +5412,7 @@
         <v>54</v>
       </c>
       <c r="AP20" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AQ20" s="3" t="s">
         <v>32</v>
@@ -5489,16 +5486,16 @@
       <c r="BN20" s="6">
         <v>1</v>
       </c>
-      <c r="BO20" s="3" t="s">
+      <c r="BO20" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="C21" s="3">
         <v>2013</v>
@@ -5507,10 +5504,10 @@
         <v>44</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="G21" s="3">
         <v>8</v>
@@ -5525,13 +5522,13 @@
         <v>105</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>51</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>32</v>
@@ -5555,7 +5552,7 @@
         <v>107</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>32</v>
@@ -5618,7 +5615,7 @@
         <v>54</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AQ21" s="3" t="s">
         <v>32</v>
@@ -5692,16 +5689,16 @@
       <c r="BN21" s="5">
         <v>1</v>
       </c>
-      <c r="BO21" s="3" t="s">
+      <c r="BO21" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="C22" s="3">
         <v>2016</v>
@@ -5710,31 +5707,31 @@
         <v>44</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="G22" s="3">
         <v>19</v>
       </c>
       <c r="H22" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="K22" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>51</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>39</v>
@@ -5746,7 +5743,7 @@
         <v>35</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>34</v>
@@ -5895,16 +5892,16 @@
       <c r="BN22" s="6">
         <v>2</v>
       </c>
-      <c r="BO22" s="3" t="s">
-        <v>136</v>
+      <c r="BO22" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="C23" s="3">
         <v>2016</v>
@@ -5913,44 +5910,44 @@
         <v>44</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="G23" s="3">
         <v>8</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>51</v>
       </c>
       <c r="M23" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="N23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>34</v>
       </c>
@@ -5958,7 +5955,7 @@
         <v>34</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>34</v>
@@ -5979,7 +5976,7 @@
         <v>39</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB23" s="6" t="s">
         <v>39</v>
@@ -6003,10 +6000,10 @@
         <v>39</v>
       </c>
       <c r="AI23" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ23" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="AJ23" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="AK23" s="3" t="s">
         <v>32</v>
@@ -6021,7 +6018,7 @@
         <v>37</v>
       </c>
       <c r="AO23" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AP23" s="3" t="s">
         <v>34</v>
@@ -6098,16 +6095,16 @@
       <c r="BN23" s="6">
         <v>4</v>
       </c>
-      <c r="BO23" s="3" t="s">
-        <v>122</v>
+      <c r="BO23" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="3">
         <v>2018</v>
@@ -6116,31 +6113,31 @@
         <v>44</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="G24" s="3">
         <v>7</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>105</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>51</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>32</v>
@@ -6164,7 +6161,7 @@
         <v>107</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>32</v>
@@ -6301,16 +6298,16 @@
       <c r="BN24" s="5">
         <v>1</v>
       </c>
-      <c r="BO24" s="3" t="s">
-        <v>208</v>
+      <c r="BO24" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="C25" s="3">
         <v>2018</v>
@@ -6319,10 +6316,10 @@
         <v>44</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="G25" s="3">
         <v>12</v>
@@ -6349,25 +6346,25 @@
         <v>32</v>
       </c>
       <c r="O25" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="T25" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="P25" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="V25" s="3" t="s">
         <v>32</v>
@@ -6427,16 +6424,16 @@
         <v>37</v>
       </c>
       <c r="AO25" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AP25" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AQ25" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AR25" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AS25" s="3" t="s">
         <v>121</v>
@@ -6493,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="BK25" s="3" t="s">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="BL25" s="3" t="s">
         <v>32</v>
@@ -6504,16 +6501,16 @@
       <c r="BN25" s="6">
         <v>3</v>
       </c>
-      <c r="BO25" s="3" t="s">
-        <v>136</v>
+      <c r="BO25" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C26" s="3">
         <v>2019</v>
@@ -6522,10 +6519,10 @@
         <v>44</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G26" s="3">
         <v>17</v>
@@ -6537,7 +6534,7 @@
         <v>39</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>38</v>
@@ -6546,13 +6543,13 @@
         <v>44</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>119</v>
@@ -6564,13 +6561,13 @@
         <v>34</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>32</v>
@@ -6582,13 +6579,13 @@
         <v>15</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB26" s="6" t="s">
         <v>39</v>
@@ -6615,7 +6612,7 @@
         <v>35</v>
       </c>
       <c r="AJ26" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AK26" s="3" t="s">
         <v>39</v>
@@ -6630,10 +6627,10 @@
         <v>37</v>
       </c>
       <c r="AO26" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AP26" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AQ26" s="3" t="s">
         <v>32</v>
@@ -6707,16 +6704,16 @@
       <c r="BN26" s="6">
         <v>4</v>
       </c>
-      <c r="BO26" s="3" t="s">
-        <v>136</v>
+      <c r="BO26" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C27" s="3">
         <v>2019</v>
@@ -6725,10 +6722,10 @@
         <v>44</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G27" s="3">
         <v>11</v>
@@ -6740,10 +6737,10 @@
         <v>39</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>44</v>
@@ -6755,22 +6752,22 @@
         <v>32</v>
       </c>
       <c r="O27" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T27" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>34</v>
@@ -6836,7 +6833,7 @@
         <v>54</v>
       </c>
       <c r="AP27" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AQ27" s="3" t="s">
         <v>32</v>
@@ -6910,16 +6907,16 @@
       <c r="BN27" s="5">
         <v>2</v>
       </c>
-      <c r="BO27" s="3" t="s">
-        <v>122</v>
+      <c r="BO27" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C28" s="3">
         <v>2020</v>
@@ -6928,22 +6925,22 @@
         <v>44</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G28" s="3">
         <v>9</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>38</v>
@@ -6952,7 +6949,7 @@
         <v>51</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>39</v>
@@ -7113,16 +7110,16 @@
       <c r="BN28" s="6">
         <v>2</v>
       </c>
-      <c r="BO28" s="3" t="s">
-        <v>136</v>
+      <c r="BO28" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C29" s="3">
         <v>2021</v>
@@ -7131,10 +7128,10 @@
         <v>44</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G29" s="3">
         <v>16</v>
@@ -7146,7 +7143,7 @@
         <v>39</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>38</v>
@@ -7155,28 +7152,28 @@
         <v>51</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N29" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O29" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>32</v>
@@ -7239,7 +7236,7 @@
         <v>54</v>
       </c>
       <c r="AP29" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AQ29" s="3" t="s">
         <v>32</v>
@@ -7313,16 +7310,16 @@
       <c r="BN29" s="6">
         <v>1</v>
       </c>
-      <c r="BO29" s="3" t="s">
+      <c r="BO29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C30" s="3">
         <v>2021</v>
@@ -7331,10 +7328,10 @@
         <v>44</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G30" s="3">
         <v>6</v>
@@ -7346,7 +7343,7 @@
         <v>39</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>38</v>
@@ -7355,28 +7352,28 @@
         <v>51</v>
       </c>
       <c r="M30" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="P30" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="N30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T30" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="U30" s="3" t="s">
         <v>34</v>
@@ -7516,16 +7513,16 @@
       <c r="BN30" s="6">
         <v>1</v>
       </c>
-      <c r="BO30" s="3" t="s">
+      <c r="BO30" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C31" s="3">
         <v>2022</v>
@@ -7534,43 +7531,43 @@
         <v>44</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G31" s="3">
         <v>5</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>51</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>119</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R31" s="3" t="s">
         <v>34</v>
@@ -7719,7 +7716,7 @@
       <c r="BN31" s="6">
         <v>1</v>
       </c>
-      <c r="BO31" s="3" t="s">
+      <c r="BO31" s="1" t="s">
         <v>121</v>
       </c>
     </row>

--- a/Tibetic-Grammars_Review_Master.xlsx
+++ b/Tibetic-Grammars_Review_Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\01_PhD\03_Analysis\02_TGR\tibetic_grammars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D44465-931B-4E93-B724-DD7AFB009E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66DDA78-14CA-4409-B1E3-1C7B817593D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{999B515B-97FA-46B5-AE4A-F4B530AC5BD1}"/>
   </bookViews>
@@ -1418,9 +1418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B25BD2-0404-4F41-955D-7B511D9709C2}">
   <dimension ref="A1:BO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH24" sqref="BH24"/>
+      <selection pane="topRight" activeCell="AY11" sqref="AY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1832,7 +1832,7 @@
       <c r="BM2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BN2" s="5">
+      <c r="BN2" s="2">
         <v>1</v>
       </c>
       <c r="BO2" s="1" t="s">
@@ -2035,7 +2035,7 @@
       <c r="BM3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN3" s="5">
+      <c r="BN3" s="2">
         <v>1</v>
       </c>
       <c r="BO3" s="2" t="s">
@@ -2238,7 +2238,7 @@
       <c r="BM4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BN4" s="5">
+      <c r="BN4" s="2">
         <v>1</v>
       </c>
       <c r="BO4" s="1" t="s">
@@ -2441,7 +2441,7 @@
       <c r="BM5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN5" s="5">
+      <c r="BN5" s="2">
         <v>1</v>
       </c>
       <c r="BO5" s="1" t="s">
@@ -2644,7 +2644,7 @@
       <c r="BM6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN6" s="5">
+      <c r="BN6" s="2">
         <v>1</v>
       </c>
       <c r="BO6" s="1" t="s">
@@ -2847,7 +2847,7 @@
       <c r="BM7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BN7" s="6">
+      <c r="BN7" s="1">
         <v>1</v>
       </c>
       <c r="BO7" s="1" t="s">
@@ -3050,7 +3050,7 @@
       <c r="BM8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN8" s="5">
+      <c r="BN8" s="2">
         <v>1</v>
       </c>
       <c r="BO8" s="2" t="s">
@@ -3253,7 +3253,7 @@
       <c r="BM9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN9" s="5">
+      <c r="BN9" s="2">
         <v>1</v>
       </c>
       <c r="BO9" s="1" t="s">
@@ -3456,7 +3456,7 @@
       <c r="BM10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN10" s="6">
+      <c r="BN10" s="1">
         <v>1</v>
       </c>
       <c r="BO10" s="1" t="s">
@@ -3659,7 +3659,7 @@
       <c r="BM11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN11" s="6">
+      <c r="BN11" s="1">
         <v>1</v>
       </c>
       <c r="BO11" s="1" t="s">
@@ -3862,7 +3862,7 @@
       <c r="BM12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN12" s="6">
+      <c r="BN12" s="1">
         <v>1</v>
       </c>
       <c r="BO12" s="1" t="s">
@@ -4062,7 +4062,7 @@
       <c r="BM13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN13" s="6">
+      <c r="BN13" s="1">
         <v>2</v>
       </c>
       <c r="BO13" s="1" t="s">
@@ -4265,7 +4265,7 @@
       <c r="BM14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN14" s="5">
+      <c r="BN14" s="2">
         <v>1</v>
       </c>
       <c r="BO14" s="2" t="s">
@@ -4468,7 +4468,7 @@
       <c r="BM15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN15" s="6">
+      <c r="BN15" s="1">
         <v>1</v>
       </c>
       <c r="BO15" s="1" t="s">
@@ -4671,7 +4671,7 @@
       <c r="BM16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN16" s="6">
+      <c r="BN16" s="1">
         <v>1</v>
       </c>
       <c r="BO16" s="1" t="s">
@@ -4874,7 +4874,7 @@
       <c r="BM17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN17" s="5">
+      <c r="BN17" s="2">
         <v>1</v>
       </c>
       <c r="BO17" s="2" t="s">
@@ -5077,7 +5077,7 @@
       <c r="BM18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN18" s="6">
+      <c r="BN18" s="1">
         <v>4</v>
       </c>
       <c r="BO18" s="1" t="s">
@@ -5280,7 +5280,7 @@
       <c r="BM19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BN19" s="6">
+      <c r="BN19" s="1">
         <v>1</v>
       </c>
       <c r="BO19" s="1" t="s">
@@ -5483,7 +5483,7 @@
       <c r="BM20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN20" s="6">
+      <c r="BN20" s="1">
         <v>1</v>
       </c>
       <c r="BO20" s="1" t="s">
@@ -5686,7 +5686,7 @@
       <c r="BM21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN21" s="5">
+      <c r="BN21" s="2">
         <v>1</v>
       </c>
       <c r="BO21" s="2" t="s">
@@ -5889,7 +5889,7 @@
       <c r="BM22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN22" s="6">
+      <c r="BN22" s="1">
         <v>2</v>
       </c>
       <c r="BO22" s="1" t="s">
@@ -6092,8 +6092,8 @@
       <c r="BM23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN23" s="6">
-        <v>4</v>
+      <c r="BN23" s="1">
+        <v>5</v>
       </c>
       <c r="BO23" s="1" t="s">
         <v>323</v>
@@ -6295,7 +6295,7 @@
       <c r="BM24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN24" s="5">
+      <c r="BN24" s="2">
         <v>1</v>
       </c>
       <c r="BO24" s="2" t="s">
@@ -6498,7 +6498,7 @@
       <c r="BM25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN25" s="6">
+      <c r="BN25" s="1">
         <v>3</v>
       </c>
       <c r="BO25" s="1" t="s">
@@ -6701,8 +6701,8 @@
       <c r="BM26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN26" s="6">
-        <v>4</v>
+      <c r="BN26" s="1">
+        <v>3</v>
       </c>
       <c r="BO26" s="1" t="s">
         <v>323</v>
@@ -6904,7 +6904,7 @@
       <c r="BM27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN27" s="5">
+      <c r="BN27" s="2">
         <v>2</v>
       </c>
       <c r="BO27" s="2" t="s">
@@ -7107,7 +7107,7 @@
       <c r="BM28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN28" s="6">
+      <c r="BN28" s="1">
         <v>2</v>
       </c>
       <c r="BO28" s="1" t="s">
@@ -7307,7 +7307,7 @@
       <c r="BM29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN29" s="6">
+      <c r="BN29" s="1">
         <v>1</v>
       </c>
       <c r="BO29" s="1" t="s">
@@ -7510,7 +7510,7 @@
       <c r="BM30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN30" s="6">
+      <c r="BN30" s="1">
         <v>1</v>
       </c>
       <c r="BO30" s="1" t="s">
@@ -7713,7 +7713,7 @@
       <c r="BM31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BN31" s="6">
+      <c r="BN31" s="1">
         <v>1</v>
       </c>
       <c r="BO31" s="1" t="s">
